--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,12 +46,12 @@
     <t>useless</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>stopped</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>returned</t>
   </si>
   <si>
@@ -82,178 +82,181 @@
     <t>perfect</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>salad</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>happy</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>husband</t>
   </si>
   <si>
     <t>perfectly</t>
   </si>
   <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>glad</t>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>cooking</t>
   </si>
   <si>
     <t>bread</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>cooke</t>
+    <t>rice</t>
   </si>
   <si>
     <t>comfortable</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
     <t>gift</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>cream</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>pie</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
-    <t>ever</t>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>popcorn</t>
   </si>
   <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
     <t>old</t>
   </si>
   <si>
-    <t>ze</t>
+    <t>good</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
-    <t>good</t>
+    <t>works</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
+    <t>pan</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>cook</t>
+    <t>exactly</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>works</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>every</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>quality</t>
+    <t>make</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>also</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>make</t>
+    <t>little</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>job</t>
   </si>
   <si>
     <t>really</t>
@@ -265,10 +268,13 @@
     <t>like</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
-    <t>time</t>
+    <t>used</t>
   </si>
   <si>
     <t>positive</t>
@@ -629,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,7 +646,7 @@
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -698,13 +704,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8275862068965517</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -716,19 +722,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -740,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -748,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.575</v>
+        <v>0.6</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -766,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>17</v>
@@ -798,13 +804,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4150943396226415</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -816,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K5">
-        <v>0.8653250773993808</v>
+        <v>0.8699690402476781</v>
       </c>
       <c r="L5">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="M5">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -840,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -848,13 +854,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4108527131782946</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="C6">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -866,19 +872,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K6">
-        <v>0.855072463768116</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M6">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -890,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -922,13 +928,13 @@
         <v>20</v>
       </c>
       <c r="K7">
-        <v>0.7359307359307359</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L7">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M7">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -940,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -948,13 +954,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3205128205128205</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -966,19 +972,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K8">
-        <v>0.7288135593220338</v>
+        <v>0.7186440677966102</v>
       </c>
       <c r="L8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -990,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -998,13 +1004,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1297297297297297</v>
+        <v>0.1567567567567568</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1016,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K9">
-        <v>0.7272727272727273</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="L9">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1040,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1048,13 +1054,13 @@
         <v>23</v>
       </c>
       <c r="K10">
-        <v>0.6986301369863014</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L10">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="M10">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1066,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1074,13 +1080,13 @@
         <v>24</v>
       </c>
       <c r="K11">
-        <v>0.6956521739130435</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1092,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1100,13 +1106,13 @@
         <v>25</v>
       </c>
       <c r="K12">
-        <v>0.6714285714285714</v>
+        <v>0.6883116883116883</v>
       </c>
       <c r="L12">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M12">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1118,7 +1124,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1126,13 +1132,13 @@
         <v>26</v>
       </c>
       <c r="K13">
-        <v>0.6412520064205457</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="L13">
-        <v>799</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>799</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1144,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>447</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1152,13 +1158,13 @@
         <v>27</v>
       </c>
       <c r="K14">
-        <v>0.6363636363636364</v>
+        <v>0.6452648475120385</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>804</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>804</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1170,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1178,13 +1184,13 @@
         <v>28</v>
       </c>
       <c r="K15">
-        <v>0.6338028169014085</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1204,13 +1210,13 @@
         <v>29</v>
       </c>
       <c r="K16">
-        <v>0.6222222222222222</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1222,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1230,13 +1236,13 @@
         <v>30</v>
       </c>
       <c r="K17">
-        <v>0.6153846153846154</v>
+        <v>0.6057142857142858</v>
       </c>
       <c r="L17">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="M17">
-        <v>40</v>
+        <v>106</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1248,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1256,13 +1262,13 @@
         <v>31</v>
       </c>
       <c r="K18">
-        <v>0.609375</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L18">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M18">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1274,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1282,13 +1288,13 @@
         <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6057142857142858</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="L19">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="M19">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1300,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1308,13 +1314,13 @@
         <v>33</v>
       </c>
       <c r="K20">
-        <v>0.5921052631578947</v>
+        <v>0.5625</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1326,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1334,13 +1340,13 @@
         <v>34</v>
       </c>
       <c r="K21">
-        <v>0.5480769230769231</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L21">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="M21">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1352,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>47</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1360,13 +1366,13 @@
         <v>35</v>
       </c>
       <c r="K22">
-        <v>0.5441176470588235</v>
+        <v>0.546875</v>
       </c>
       <c r="L22">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M22">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1378,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1386,13 +1392,13 @@
         <v>36</v>
       </c>
       <c r="K23">
-        <v>0.5329341317365269</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="L23">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="M23">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1404,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>78</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1412,13 +1418,13 @@
         <v>37</v>
       </c>
       <c r="K24">
-        <v>0.5208333333333334</v>
+        <v>0.5269461077844312</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="M24">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1430,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>23</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1438,13 +1444,13 @@
         <v>38</v>
       </c>
       <c r="K25">
-        <v>0.52</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L25">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M25">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1456,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1464,13 +1470,13 @@
         <v>39</v>
       </c>
       <c r="K26">
-        <v>0.5180722891566265</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L26">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M26">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1482,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1490,13 +1496,13 @@
         <v>40</v>
       </c>
       <c r="K27">
-        <v>0.5042735042735043</v>
+        <v>0.4605263157894737</v>
       </c>
       <c r="L27">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="M27">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1508,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1516,13 +1522,13 @@
         <v>41</v>
       </c>
       <c r="K28">
-        <v>0.4918032786885246</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L28">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M28">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1534,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1542,13 +1548,13 @@
         <v>42</v>
       </c>
       <c r="K29">
-        <v>0.4736842105263158</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L29">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M29">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1560,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1568,13 +1574,13 @@
         <v>43</v>
       </c>
       <c r="K30">
-        <v>0.4722222222222222</v>
+        <v>0.443609022556391</v>
       </c>
       <c r="L30">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="M30">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1586,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>38</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1594,13 +1600,13 @@
         <v>44</v>
       </c>
       <c r="K31">
-        <v>0.4518072289156627</v>
+        <v>0.4414414414414414</v>
       </c>
       <c r="L31">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="M31">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1612,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>91</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1620,13 +1626,13 @@
         <v>45</v>
       </c>
       <c r="K32">
-        <v>0.4126984126984127</v>
+        <v>0.44</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="M32">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1638,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1646,13 +1652,13 @@
         <v>46</v>
       </c>
       <c r="K33">
-        <v>0.3970588235294117</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1664,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1672,13 +1678,13 @@
         <v>47</v>
       </c>
       <c r="K34">
-        <v>0.3852140077821012</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="L34">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="M34">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1690,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>158</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1698,13 +1704,13 @@
         <v>48</v>
       </c>
       <c r="K35">
-        <v>0.3848039215686275</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="L35">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="M35">
-        <v>157</v>
+        <v>70</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1716,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>251</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1724,13 +1730,13 @@
         <v>49</v>
       </c>
       <c r="K36">
-        <v>0.3692307692307693</v>
+        <v>0.4</v>
       </c>
       <c r="L36">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M36">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1742,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1750,13 +1756,13 @@
         <v>50</v>
       </c>
       <c r="K37">
-        <v>0.3315068493150685</v>
+        <v>0.382716049382716</v>
       </c>
       <c r="L37">
-        <v>242</v>
+        <v>31</v>
       </c>
       <c r="M37">
-        <v>242</v>
+        <v>31</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1768,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>488</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1776,13 +1782,13 @@
         <v>51</v>
       </c>
       <c r="K38">
-        <v>0.3308270676691729</v>
+        <v>0.3774509803921569</v>
       </c>
       <c r="L38">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="M38">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1794,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>89</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1802,13 +1808,13 @@
         <v>52</v>
       </c>
       <c r="K39">
-        <v>0.3253588516746411</v>
+        <v>0.3657587548638132</v>
       </c>
       <c r="L39">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="M39">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1820,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>141</v>
+        <v>163</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1828,13 +1834,13 @@
         <v>53</v>
       </c>
       <c r="K40">
-        <v>0.3153153153153153</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="L40">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M40">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1846,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>76</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1854,13 +1860,13 @@
         <v>54</v>
       </c>
       <c r="K41">
-        <v>0.3026315789473684</v>
+        <v>0.3397260273972603</v>
       </c>
       <c r="L41">
-        <v>23</v>
+        <v>248</v>
       </c>
       <c r="M41">
-        <v>23</v>
+        <v>248</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1872,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>53</v>
+        <v>482</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1880,13 +1886,13 @@
         <v>55</v>
       </c>
       <c r="K42">
-        <v>0.302158273381295</v>
+        <v>0.3309352517985611</v>
       </c>
       <c r="L42">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M42">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1898,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1906,13 +1912,13 @@
         <v>56</v>
       </c>
       <c r="K43">
-        <v>0.2932330827067669</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L43">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="M43">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1924,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>94</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1932,13 +1938,13 @@
         <v>57</v>
       </c>
       <c r="K44">
-        <v>0.2716049382716049</v>
+        <v>0.3110047846889952</v>
       </c>
       <c r="L44">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="M44">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1950,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>59</v>
+        <v>144</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1958,13 +1964,13 @@
         <v>58</v>
       </c>
       <c r="K45">
-        <v>0.271523178807947</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L45">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M45">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1976,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1984,13 +1990,13 @@
         <v>59</v>
       </c>
       <c r="K46">
-        <v>0.2561894510226049</v>
+        <v>0.2658772874058127</v>
       </c>
       <c r="L46">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="M46">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2002,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>691</v>
+        <v>682</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2010,13 +2016,13 @@
         <v>60</v>
       </c>
       <c r="K47">
-        <v>0.2475247524752475</v>
+        <v>0.2582781456953642</v>
       </c>
       <c r="L47">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M47">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2028,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>76</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2036,13 +2042,13 @@
         <v>61</v>
       </c>
       <c r="K48">
-        <v>0.2342342342342342</v>
+        <v>0.2437086092715232</v>
       </c>
       <c r="L48">
-        <v>26</v>
+        <v>184</v>
       </c>
       <c r="M48">
-        <v>26</v>
+        <v>184</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2054,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>85</v>
+        <v>571</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2062,13 +2068,13 @@
         <v>62</v>
       </c>
       <c r="K49">
-        <v>0.2314814814814815</v>
+        <v>0.2277227722772277</v>
       </c>
       <c r="L49">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M49">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2080,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2088,13 +2094,13 @@
         <v>63</v>
       </c>
       <c r="K50">
-        <v>0.2199488491048593</v>
+        <v>0.213166144200627</v>
       </c>
       <c r="L50">
-        <v>172</v>
+        <v>68</v>
       </c>
       <c r="M50">
-        <v>172</v>
+        <v>68</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2106,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>610</v>
+        <v>251</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2114,22 +2120,22 @@
         <v>64</v>
       </c>
       <c r="K51">
-        <v>0.2142857142857143</v>
+        <v>0.2072072072072072</v>
       </c>
       <c r="L51">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M51">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N51">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O51">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q51">
         <v>88</v>
@@ -2140,25 +2146,25 @@
         <v>65</v>
       </c>
       <c r="K52">
-        <v>0.213166144200627</v>
+        <v>0.1964285714285714</v>
       </c>
       <c r="L52">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="M52">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52">
-        <v>251</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2166,13 +2172,13 @@
         <v>66</v>
       </c>
       <c r="K53">
-        <v>0.209271523178808</v>
+        <v>0.1956521739130435</v>
       </c>
       <c r="L53">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M53">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2184,7 +2190,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>597</v>
+        <v>629</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2192,13 +2198,13 @@
         <v>67</v>
       </c>
       <c r="K54">
-        <v>0.1754385964912281</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="L54">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="M54">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2210,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>376</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2218,25 +2224,25 @@
         <v>68</v>
       </c>
       <c r="K55">
-        <v>0.1677852348993289</v>
+        <v>0.1756756756756757</v>
       </c>
       <c r="L55">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="M55">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="N55">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q55">
-        <v>124</v>
+        <v>305</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2244,13 +2250,13 @@
         <v>69</v>
       </c>
       <c r="K56">
-        <v>0.1670644391408115</v>
+        <v>0.1551312649164678</v>
       </c>
       <c r="L56">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M56">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2262,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2270,13 +2276,13 @@
         <v>70</v>
       </c>
       <c r="K57">
-        <v>0.1623616236162362</v>
+        <v>0.1524390243902439</v>
       </c>
       <c r="L57">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="M57">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2288,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>227</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2296,13 +2302,13 @@
         <v>71</v>
       </c>
       <c r="K58">
-        <v>0.1536388140161725</v>
+        <v>0.1513157894736842</v>
       </c>
       <c r="L58">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="M58">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2314,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>314</v>
+        <v>387</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2322,13 +2328,13 @@
         <v>72</v>
       </c>
       <c r="K59">
-        <v>0.1518518518518518</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="L59">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M59">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2340,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2348,13 +2354,13 @@
         <v>73</v>
       </c>
       <c r="K60">
-        <v>0.1508515815085158</v>
+        <v>0.1393939393939394</v>
       </c>
       <c r="L60">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="M60">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2366,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>349</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2374,13 +2380,13 @@
         <v>74</v>
       </c>
       <c r="K61">
-        <v>0.1412429378531073</v>
+        <v>0.1386363636363636</v>
       </c>
       <c r="L61">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="M61">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2392,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>152</v>
+        <v>379</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2400,13 +2406,13 @@
         <v>75</v>
       </c>
       <c r="K62">
-        <v>0.1402439024390244</v>
+        <v>0.1242937853107345</v>
       </c>
       <c r="L62">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M62">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2418,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>141</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2426,13 +2432,13 @@
         <v>76</v>
       </c>
       <c r="K63">
-        <v>0.1363636363636364</v>
+        <v>0.1182266009852217</v>
       </c>
       <c r="L63">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="M63">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2444,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>380</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2452,13 +2458,13 @@
         <v>77</v>
       </c>
       <c r="K64">
-        <v>0.1349693251533742</v>
+        <v>0.1143911439114391</v>
       </c>
       <c r="L64">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M64">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2470,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>141</v>
+        <v>240</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2478,13 +2484,13 @@
         <v>78</v>
       </c>
       <c r="K65">
-        <v>0.1218487394957983</v>
+        <v>0.1099656357388316</v>
       </c>
       <c r="L65">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M65">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2496,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>209</v>
+        <v>259</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2504,25 +2510,25 @@
         <v>79</v>
       </c>
       <c r="K66">
-        <v>0.1030927835051546</v>
+        <v>0.1024390243902439</v>
       </c>
       <c r="L66">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M66">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>261</v>
+        <v>368</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2530,13 +2536,13 @@
         <v>80</v>
       </c>
       <c r="K67">
-        <v>0.09562841530054644</v>
+        <v>0.08870967741935484</v>
       </c>
       <c r="L67">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="M67">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2548,7 +2554,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>331</v>
+        <v>226</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2556,25 +2562,25 @@
         <v>81</v>
       </c>
       <c r="K68">
-        <v>0.07563025210084033</v>
+        <v>0.08743169398907104</v>
       </c>
       <c r="L68">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="M68">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="N68">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>990</v>
+        <v>334</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2582,25 +2588,25 @@
         <v>82</v>
       </c>
       <c r="K69">
-        <v>0.0703012912482066</v>
+        <v>0.08582089552238806</v>
       </c>
       <c r="L69">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="M69">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="N69">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>648</v>
+        <v>980</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2608,25 +2614,25 @@
         <v>83</v>
       </c>
       <c r="K70">
-        <v>0.06157849089332177</v>
+        <v>0.08177905308464849</v>
       </c>
       <c r="L70">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="M70">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="N70">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="O70">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>1082</v>
+        <v>640</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2634,13 +2640,13 @@
         <v>84</v>
       </c>
       <c r="K71">
-        <v>0.06088560885608856</v>
+        <v>0.06273062730627306</v>
       </c>
       <c r="L71">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M71">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2652,7 +2658,59 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>509</v>
+        <v>508</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K72">
+        <v>0.05367965367965368</v>
+      </c>
+      <c r="L72">
+        <v>62</v>
+      </c>
+      <c r="M72">
+        <v>64</v>
+      </c>
+      <c r="N72">
+        <v>0.97</v>
+      </c>
+      <c r="O72">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K73">
+        <v>0.04816955684007707</v>
+      </c>
+      <c r="L73">
+        <v>25</v>
+      </c>
+      <c r="M73">
+        <v>28</v>
+      </c>
+      <c r="N73">
+        <v>0.89</v>
+      </c>
+      <c r="O73">
+        <v>0.11</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>494</v>
       </c>
     </row>
   </sheetData>
